--- a/Symphony Update Price List 7.3.19.xlsx
+++ b/Symphony Update Price List 7.3.19.xlsx
@@ -277,7 +277,7 @@
     <t>Boishakhi Offer</t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 9.3.19</t>
+    <t>Symphony Update Price list                              Date: 11.3.19</t>
   </si>
 </sst>
 </file>
@@ -426,14 +426,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,7 +744,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -761,17 +761,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="31.5">
       <c r="A2" s="8" t="s">
@@ -942,19 +942,19 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>790</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>860</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>10</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1076,19 +1076,19 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="56.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>880</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>950</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>20</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1326,19 +1326,19 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>1290</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>1390</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1496,19 +1496,19 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>1100</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>1199</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>20</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1664,19 +1664,19 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>1100</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>1190</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>10</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1720,19 +1720,19 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>1330</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>1450</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>20</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
